--- a/[2분반]2013136105_이현희_마이크로프로세서및실습_재료구매신청서.xlsx
+++ b/[2분반]2013136105_이현희_마이크로프로세서및실습_재료구매신청서.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>블루투스 ( Bluetooth ) - 직렬포트 모듈 HC-06 (DIP)</t>
-  </si>
-  <si>
     <t>2분반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +98,6 @@
     <t>DHT11 온습도 센서모듈 [SZH-EK024]</t>
   </si>
   <si>
-    <t>http://www.devicemart.co.kr/1272836</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.devicemart.co.kr/33218</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,17 +117,7 @@
     <t>아두이노 1602 캐릭터 LCD 병렬제어모듈 [DIS030004]</t>
   </si>
   <si>
-    <t xml:space="preserve">아두이노 L298P 모터 쉴드 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스텝모터 (42HS40-1704A05)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xdream.godo.co.kr/shop/goods/
-goods_view.php?goodsno=
-2734&amp;category=007002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +148,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -259,7 +234,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +244,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,27 +267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -322,54 +291,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>629473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="_x138398680" descr="EMB00002b882c8d"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9039225" y="1295400"/>
-          <a:ext cx="1019175" cy="591373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>7</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -380,7 +309,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -403,13 +332,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1409699</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>790345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -420,7 +349,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -442,19 +371,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>215901</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1485899</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1095374</xdr:rowOff>
+      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>797719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1029" name="default_image" descr="http://www.devicemart.co.kr/skin/goods/large/1078176.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9055101" y="2686051"/>
+          <a:ext cx="1050924" cy="788193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>940594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="default_image" descr="http://www.devicemart.co.kr/skin/goods/large/1322009.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -468,88 +437,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8874125" y="3590925"/>
-          <a:ext cx="1346199" cy="1009649"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>940594</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="default_image" descr="http://www.devicemart.co.kr/skin/goods/large/1322009.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
           <a:off x="8940800" y="5838825"/>
           <a:ext cx="1203325" cy="902494"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1061636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1031" name="_x138397720" descr="EMB00002b882c91"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9010650" y="4781550"/>
-          <a:ext cx="1209675" cy="947336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -825,9 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -843,66 +734,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="8">
         <v>2013136105</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -931,178 +822,101 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6">
-        <v>13000</v>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>200</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>13000</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="54.75" customHeight="1">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>200</v>
+      <c r="C8" s="3">
+        <v>3300</v>
       </c>
       <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="12">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="65.25" customHeight="1">
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="6">
-        <v>3300</v>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="6">
-        <v>3300</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="E9" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="91.5" customHeight="1">
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>20000</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6900</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="89.25" customHeight="1">
-      <c r="A11" s="2">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="12">
-        <v>33000</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>33000</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="E10" s="3">
         <v>6900</v>
       </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>6900</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="11">
-        <f>SUM(E7:E12)</f>
-        <v>78200</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
+      <c r="E11" s="6">
+        <f>SUM(E7:E10)</f>
+        <v>35500</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:G5"/>
@@ -1117,11 +931,9 @@
     <hyperlink ref="F8" r:id="rId2"/>
     <hyperlink ref="F9" r:id="rId3"/>
     <hyperlink ref="F10" r:id="rId4"/>
-    <hyperlink ref="F12" r:id="rId5"/>
-    <hyperlink ref="F11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>